--- a/Documentation/tab.xlsx
+++ b/Documentation/tab.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>330 kHz</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>0.479</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>0.61</t>
@@ -664,7 +661,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +671,7 @@
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -681,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -734,93 +732,93 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
+      <c r="G4" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
@@ -853,7 +851,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -865,105 +863,105 @@
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
+      <c r="G13" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -975,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
@@ -1004,99 +1002,99 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>14</v>
+      <c r="G22" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
